--- a/data.xlsx
+++ b/data.xlsx
@@ -1,85 +1,1039 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch\Desktop\wzs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA5401-199E-43D4-9281-478C5DBAAF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
+  <si>
+    <t>保单号</t>
+  </si>
+  <si>
+    <t>被保险人</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>承保市</t>
+  </si>
+  <si>
+    <t>承保县</t>
+  </si>
+  <si>
+    <t>承保乡镇</t>
+  </si>
+  <si>
+    <t>村委会名称</t>
+  </si>
+  <si>
+    <t>保费</t>
+  </si>
+  <si>
+    <t>赔款</t>
+  </si>
+  <si>
+    <t>简单赔付率</t>
+  </si>
+  <si>
+    <t>10811021400112314411</t>
+  </si>
+  <si>
+    <t>朱某某</t>
+  </si>
+  <si>
+    <t>平安产险吉林省中央财政补贴性能繁母猪养殖成本保险</t>
+  </si>
+  <si>
+    <t>吉林市</t>
+  </si>
+  <si>
+    <t>蛟河市</t>
+  </si>
+  <si>
+    <t>白石山镇</t>
+  </si>
+  <si>
+    <t>平岗村委</t>
+  </si>
+  <si>
+    <t>43500</t>
+  </si>
+  <si>
+    <t>10811021400001196941</t>
+  </si>
+  <si>
+    <t>林某某</t>
+  </si>
+  <si>
+    <t>松江镇</t>
+  </si>
+  <si>
+    <t>靠山村添</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>10811021400001197145</t>
+  </si>
+  <si>
+    <t>倪某某</t>
+  </si>
+  <si>
+    <t>松江村委</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>10811021400001197243</t>
+  </si>
+  <si>
+    <t>平安产险吉林省中央财政育肥猪养殖保险</t>
+  </si>
+  <si>
+    <t>松江镳</t>
+  </si>
+  <si>
+    <t>靠山村委</t>
+  </si>
+  <si>
+    <t>3692.8</t>
+  </si>
+  <si>
+    <t>10811021400001197244</t>
+  </si>
+  <si>
+    <t>王某某</t>
+  </si>
+  <si>
+    <t>平安产险言林省中央财政补贴性能繁母猪养殖成本保险</t>
+  </si>
+  <si>
+    <t>沿湖村委</t>
+  </si>
+  <si>
+    <t>10811021400001197541</t>
+  </si>
+  <si>
+    <t>平安产险吉林省中央财政育肥猪养監保险</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>10811021400001198635</t>
+  </si>
+  <si>
+    <t>十安产险言林省中央财政育肥猪养殖保险</t>
+  </si>
+  <si>
+    <t>白石山村</t>
+  </si>
+  <si>
+    <t>597.2</t>
+  </si>
+  <si>
+    <t>10811021400001199679</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>10811021400001199827</t>
+  </si>
+  <si>
+    <t>664.8</t>
+  </si>
+  <si>
+    <t>10811021400001209204</t>
+  </si>
+  <si>
+    <t>沿江村委</t>
+  </si>
+  <si>
+    <t>10811021400001209636</t>
+  </si>
+  <si>
+    <t>平安产险吉林省中央财政有肥猪养殖保险</t>
+  </si>
+  <si>
+    <t>炮手沟村</t>
+  </si>
+  <si>
+    <t>505.2</t>
+  </si>
+  <si>
+    <t>16.45%</t>
+  </si>
+  <si>
+    <t>10811021400001209795</t>
+  </si>
+  <si>
+    <t>代露沟村</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>104.17%</t>
+  </si>
+  <si>
+    <t>10811021400001209988</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>10811021400001209989</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>12.595</t>
+  </si>
+  <si>
+    <t>10811021400001210035</t>
+  </si>
+  <si>
+    <t>1187.2</t>
+  </si>
+  <si>
+    <t>7.73%</t>
+  </si>
+  <si>
+    <t>10811021400001210105</t>
+  </si>
+  <si>
+    <t>2127.2</t>
+  </si>
+  <si>
+    <t>55.40%</t>
+  </si>
+  <si>
+    <t>10811021400001211119</t>
+  </si>
+  <si>
+    <t>东桥村委</t>
+  </si>
+  <si>
+    <t>2922.8</t>
+  </si>
+  <si>
+    <t>126.86%</t>
+  </si>
+  <si>
+    <t>10811021400001211120</t>
+  </si>
+  <si>
+    <t>白石山镇 东桥村委</t>
+  </si>
+  <si>
+    <t>29385.6</t>
+  </si>
+  <si>
+    <t>382.63%</t>
+  </si>
+  <si>
+    <t>10811021400001211150</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>833.33%</t>
+  </si>
+  <si>
+    <t>10811021400001211151</t>
+  </si>
+  <si>
+    <t>555.56%</t>
+  </si>
+  <si>
+    <t>10811021400001211456</t>
+  </si>
+  <si>
+    <t>友好村委</t>
+  </si>
+  <si>
+    <t>1345.6</t>
+  </si>
+  <si>
+    <t>35.04%</t>
+  </si>
+  <si>
+    <t>10811021400001211457</t>
+  </si>
+  <si>
+    <t>前柳村委</t>
+  </si>
+  <si>
+    <t>4515.8</t>
+  </si>
+  <si>
+    <t>49.004</t>
+  </si>
+  <si>
+    <t>10811021400001211708</t>
+  </si>
+  <si>
+    <t>182.4</t>
+  </si>
+  <si>
+    <t>5.94%</t>
+  </si>
+  <si>
+    <t>10811021400001211709</t>
+  </si>
+  <si>
+    <t>10811021400001211710</t>
+  </si>
+  <si>
+    <t>白石山镇 白石山村</t>
+  </si>
+  <si>
+    <t>2975.62</t>
+  </si>
+  <si>
+    <t>64.58%</t>
+  </si>
+  <si>
+    <t>10811021400001211711</t>
+  </si>
+  <si>
+    <t>平安产险吉林省中央财政育肥猪养驰保险</t>
+  </si>
+  <si>
+    <t>白石山锥 前柳村委</t>
+  </si>
+  <si>
+    <t>627.2</t>
+  </si>
+  <si>
+    <t>27.22%</t>
+  </si>
+  <si>
+    <t>10811021400001212010</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>888.89%</t>
+  </si>
+  <si>
+    <t>10811021400001212339</t>
+  </si>
+  <si>
+    <t>姣河市</t>
+  </si>
+  <si>
+    <t>3747.6</t>
+  </si>
+  <si>
+    <t>243.98%</t>
+  </si>
+  <si>
+    <t>10811021400001212340</t>
+  </si>
+  <si>
+    <t>11486</t>
+  </si>
+  <si>
+    <t>99.70%</t>
+  </si>
+  <si>
+    <t>10811021400001212341</t>
+  </si>
+  <si>
+    <t>277.78%</t>
+  </si>
+  <si>
+    <t>10811021400001212343</t>
+  </si>
+  <si>
+    <t>4852.4</t>
+  </si>
+  <si>
+    <t>78.98%</t>
+  </si>
+  <si>
+    <t>10811021400001212384</t>
+  </si>
+  <si>
+    <t>10811021400001212931</t>
+  </si>
+  <si>
+    <t>琶河村委</t>
+  </si>
+  <si>
+    <t>1941.6</t>
+  </si>
+  <si>
+    <t>31.60%</t>
+  </si>
+  <si>
+    <t>10811021400001247389</t>
+  </si>
+  <si>
+    <t>平安产险吉林省地方财政补贴性肉牛养殖成本保险(以奖代补)</t>
+  </si>
+  <si>
+    <t>琵河村委</t>
+  </si>
+  <si>
+    <t>18860</t>
+  </si>
+  <si>
+    <t>150.58%</t>
+  </si>
+  <si>
+    <t>10811021400001248079</t>
+  </si>
+  <si>
+    <t>育青村委</t>
+  </si>
+  <si>
+    <t>27958</t>
+  </si>
+  <si>
+    <t>174.39%</t>
+  </si>
+  <si>
+    <t>10811021400001261632</t>
+  </si>
+  <si>
+    <t>吴某某</t>
+  </si>
+  <si>
+    <t>徐强等15平安产险吉林省地方财政补贴性肉牛养殖成本保险(以奖代补)</t>
+  </si>
+  <si>
+    <t>白石山镶</t>
+  </si>
+  <si>
+    <t>116172</t>
+  </si>
+  <si>
+    <t>131.019</t>
+  </si>
+  <si>
+    <t>10811021400001264539</t>
+  </si>
+  <si>
+    <t>郭家胜等平安产险吉林省地方财政补贴性肉牛养殖成本保险(以奖代补)</t>
+  </si>
+  <si>
+    <t>新发村委</t>
+  </si>
+  <si>
+    <t>61570</t>
+  </si>
+  <si>
+    <t>23.32%</t>
+  </si>
+  <si>
+    <t>10811021400001266949</t>
+  </si>
+  <si>
+    <t>姜路艳等平安产险吉林省地方财政补贴性肉牛养殖成本保险(以奖代补》</t>
+  </si>
+  <si>
+    <t>20572</t>
+  </si>
+  <si>
+    <t>132.46%</t>
+  </si>
+  <si>
+    <t>10811021400001267107</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>郑世昆等平安产险吉林省地方财政补贴性肉牛养骑成本保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>以奖代补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>四合村姿</t>
+  </si>
+  <si>
+    <t>19002.4</t>
+  </si>
+  <si>
+    <t>37.93%</t>
+  </si>
+  <si>
+    <t>10811021400001267153</t>
+  </si>
+  <si>
+    <t>张某某</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平安产险吉林省地方财政补贴性肉牛养殖成本保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>以奖代补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>临江村零</t>
+  </si>
+  <si>
+    <t>76326</t>
+  </si>
+  <si>
+    <t>43.16%</t>
+  </si>
+  <si>
+    <t>10811021400001267254</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平安产险吉林省地方财政补贴性肉牛养驰成本保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>以奖代补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>同青村委</t>
+  </si>
+  <si>
+    <t>64954</t>
+  </si>
+  <si>
+    <t>67.53%</t>
+  </si>
+  <si>
+    <t>10811021400001267350</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>平安产險吉林省地方财政补贴性肉牛养殖成本保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>以奖代补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>永兴村委</t>
+  </si>
+  <si>
+    <t>53290</t>
+  </si>
+  <si>
+    <t>168.84%</t>
+  </si>
+  <si>
+    <t>10811021400001267399</t>
+  </si>
+  <si>
+    <t>128990</t>
+  </si>
+  <si>
+    <t>102.99%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -87,31 +1041,569 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,12 +1645,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,12 +1680,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -362,68 +1854,1571 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.53097345132743" style="1"/>
+    <col min="2" max="2" width="28.141592920354" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.0530973451327" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.9469026548673" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.00884955752212" style="2"/>
+    <col min="7" max="7" width="9.07079646017699" style="2"/>
+    <col min="8" max="9" width="23.8938053097345" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.58407079646018" style="2"/>
+    <col min="11" max="11" width="15" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="19.2" customHeight="1" spans="2:11">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>90000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.4833</v>
+      </c>
+    </row>
+    <row r="3" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.1111</v>
+      </c>
+    </row>
+    <row r="4" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.1667</v>
+      </c>
+    </row>
+    <row r="5" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>46080</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5400</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.1111</v>
+      </c>
+    </row>
+    <row r="7" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2">
+        <v>46080</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.0173</v>
+      </c>
+    </row>
+    <row r="8" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2">
+        <v>153600</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.0039</v>
+      </c>
+    </row>
+    <row r="9" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>18630</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.4026</v>
+      </c>
+    </row>
+    <row r="10" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>158976</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="11" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2">
+        <v>450</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.3333</v>
+      </c>
+    </row>
+    <row r="12" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3072</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2">
+        <v>33840</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1800</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2304</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>15360</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3840</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2304</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7680</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="2">
+        <v>360</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="2">
+        <v>270</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3010</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9216</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3072</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2">
+        <v>900</v>
+      </c>
+      <c r="J25" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K25" s="4">
+        <v>16.6667</v>
+      </c>
+    </row>
+    <row r="26" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4608</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
+      <c r="I27" s="2">
+        <v>2304</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1350</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11520</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="2">
+        <v>540</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6144</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6144</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="2">
+        <v>12525</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="2">
+        <v>16032</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="2">
+        <v>88677</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="2">
+        <v>264027</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="2">
+        <v>15531</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="2">
+        <v>50100</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="2">
+        <v>176853</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="2">
+        <v>96192</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" s="2">
+        <v>31563</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="2">
+        <v>125250</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" ht="19.2" customHeight="1" spans="1:11">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>